--- a/mapa.xlsx
+++ b/mapa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Master\Guiado\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18FF91D-CB43-48CF-BC6B-23682AB77AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0951AC-C37F-402E-B308-9AFACA3019A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9000" windowHeight="9705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="-3735" windowWidth="12150" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mapa.xlsx
+++ b/mapa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Master\Guiado\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Master\Guiado\code_balizas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0951AC-C37F-402E-B308-9AFACA3019A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C67155E-EF66-497C-A222-D56423AFE168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-3735" windowWidth="12150" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,51 +358,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>7.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -413,80 +413,80 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="C5">
-        <v>23.5</v>
+        <v>37.5</v>
       </c>
       <c r="D5">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>23.5</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
       <c r="D7">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>30</v>
       </c>
       <c r="C9">
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -494,13 +494,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="B10">
         <v>30</v>
       </c>
       <c r="C10">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -508,41 +508,41 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>18.5</v>
       </c>
       <c r="B12">
-        <v>2.5</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>12.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>2.5</v>
       </c>
       <c r="C13">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>12.5</v>
@@ -550,13 +550,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="B14">
         <v>2.5</v>
       </c>
       <c r="C14">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="D14">
         <v>12.5</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>27.5</v>
+        <v>12.5</v>
       </c>
       <c r="B15">
         <v>2.5</v>
       </c>
       <c r="C15">
-        <v>27.5</v>
+        <v>12.5</v>
       </c>
       <c r="D15">
         <v>12.5</v>
@@ -578,13 +578,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
       <c r="B16">
         <v>2.5</v>
       </c>
       <c r="C16">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
       <c r="D16">
         <v>12.5</v>
@@ -592,13 +592,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="B17">
         <v>2.5</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="D17">
         <v>12.5</v>
@@ -606,13 +606,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16.5</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="C18">
-        <v>16.5</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>12.5</v>
@@ -620,13 +620,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>23.5</v>
+        <v>16.5</v>
       </c>
       <c r="B19">
         <v>7.5</v>
       </c>
       <c r="C19">
-        <v>23.5</v>
+        <v>16.5</v>
       </c>
       <c r="D19">
         <v>12.5</v>
@@ -634,27 +634,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="B20">
         <v>7.5</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>7.5</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -662,27 +662,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>5.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>2.5</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>5.5</v>
@@ -690,27 +690,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>37.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>37.5</v>
@@ -718,27 +718,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>40</v>
@@ -746,24 +746,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>40</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>40</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,12 +791,26 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C31">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
         <v>20</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>40</v>
       </c>
     </row>

--- a/mapa.xlsx
+++ b/mapa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Master\Guiado\code_balizas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Master\Guiado\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C67155E-EF66-497C-A222-D56423AFE168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0951AC-C37F-402E-B308-9AFACA3019A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="-3735" windowWidth="12150" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,51 +358,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>40</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="D2">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -413,80 +413,80 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="B5">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="C5">
-        <v>37.5</v>
+        <v>23.5</v>
       </c>
       <c r="D5">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>23.5</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="B9">
         <v>30</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>7.5</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -494,13 +494,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>30</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -508,41 +508,41 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>18.5</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>2.5</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="B13">
         <v>2.5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D13">
         <v>12.5</v>
@@ -550,13 +550,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="B14">
         <v>2.5</v>
       </c>
       <c r="C14">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="D14">
         <v>12.5</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12.5</v>
+        <v>27.5</v>
       </c>
       <c r="B15">
         <v>2.5</v>
       </c>
       <c r="C15">
-        <v>12.5</v>
+        <v>27.5</v>
       </c>
       <c r="D15">
         <v>12.5</v>
@@ -578,13 +578,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>27.5</v>
+        <v>32.5</v>
       </c>
       <c r="B16">
         <v>2.5</v>
       </c>
       <c r="C16">
-        <v>27.5</v>
+        <v>32.5</v>
       </c>
       <c r="D16">
         <v>12.5</v>
@@ -592,13 +592,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>2.5</v>
       </c>
       <c r="C17">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>12.5</v>
@@ -606,13 +606,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>35</v>
+        <v>16.5</v>
       </c>
       <c r="B18">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>16.5</v>
       </c>
       <c r="D18">
         <v>12.5</v>
@@ -620,13 +620,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16.5</v>
+        <v>23.5</v>
       </c>
       <c r="B19">
         <v>7.5</v>
       </c>
       <c r="C19">
-        <v>16.5</v>
+        <v>23.5</v>
       </c>
       <c r="D19">
         <v>12.5</v>
@@ -634,27 +634,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>23.5</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>7.5</v>
       </c>
       <c r="C20">
-        <v>23.5</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>7.5</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -662,27 +662,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2.5</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>5.5</v>
@@ -690,27 +690,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>5.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>37.5</v>
@@ -718,27 +718,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>37.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>40</v>
@@ -746,24 +746,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>40</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>40</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,26 +791,12 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>40</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
-      </c>
-      <c r="D32">
         <v>40</v>
       </c>
     </row>
